--- a/research-paper/data source/591收費.xlsx
+++ b/research-paper/data source/591收費.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\桌面\Goldhouse\research-paper\data source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E79E5D-603D-450E-9FBA-E1164C2D1D2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BF0285-03B5-4C87-B694-08DE0F3A242B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3930" activeTab="1" xr2:uid="{0C07B2F6-692A-47EE-BA49-A7E86057F6FD}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>價格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +82,14 @@
   </si>
   <si>
     <t>10000/月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加上人事成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不加人事成本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -109,7 +117,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,6 +127,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -137,20 +151,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -482,7 +499,7 @@
       <c r="A1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -522,10 +539,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F009F4CF-9E4A-48C4-B846-144B2E6F043C}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -536,16 +553,16 @@
     <col min="9" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" s="4">
         <v>591</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -553,7 +570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -582,7 +599,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -618,7 +635,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -647,7 +664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -676,7 +693,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -684,7 +701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -710,7 +727,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -730,7 +747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -756,7 +773,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C12">
         <f>15000/B8</f>
         <v>37.5</v>
@@ -764,6 +781,14 @@
       <c r="I12">
         <f>15000/H8</f>
         <v>60</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K13" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/research-paper/data source/591收費.xlsx
+++ b/research-paper/data source/591收費.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\桌面\Goldhouse\research-paper\data source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BF0285-03B5-4C87-B694-08DE0F3A242B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0415325E-6693-42B7-8122-69AB88AC0025}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3930" activeTab="1" xr2:uid="{0C07B2F6-692A-47EE-BA49-A7E86057F6FD}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>價格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,22 +74,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3564/月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>行銷廣告</t>
   </si>
   <si>
-    <t>10000/月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>加上人事成本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>不加人事成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人事成本(全職)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>損益平衡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -151,7 +159,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -161,13 +169,16 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -484,52 +495,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5406EB25-B1F9-4E7A-B1AB-B994F8B3FAB4}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A2:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="2" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D2" s="2">
+        <v>5000</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="D3">
+        <v>10000</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>30000</v>
+      </c>
+      <c r="D4">
+        <f>B4*C4</f>
+        <v>90000</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2">
+        <f>SUM(D2:D4)</f>
+        <v>105000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H1:K3"/>
+    <mergeCell ref="H2:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -539,10 +572,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F009F4CF-9E4A-48C4-B846-144B2E6F043C}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -551,26 +584,34 @@
     <col min="3" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A1" s="5">
         <v>591</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="2">
+        <f>費用!D5</f>
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -599,7 +640,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -634,8 +675,18 @@
         <f>J3/J5</f>
         <v>130</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="6">
+        <f>M2/H8</f>
+        <v>420</v>
+      </c>
+      <c r="N4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -664,7 +715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -693,7 +744,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -701,7 +752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -727,7 +778,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -747,7 +798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -773,22 +824,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C12">
         <f>15000/B8</f>
         <v>37.5</v>
       </c>
-      <c r="I12">
-        <f>15000/H8</f>
-        <v>60</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="K13" s="5" t="s">
-        <v>15</v>
+      <c r="K12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="K13" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
